--- a/Vocabularies/ASCE/asce-et-g.xlsx
+++ b/Vocabularies/ASCE/asce-et-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/ASCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D2C7B-9726-4C60-932B-9BCD616F6872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E9ACD-F9B3-4A45-AB58-1F072E091612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-35380" yWindow="2020" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="262">
   <si>
     <t>Term</t>
   </si>
@@ -87,15 +87,9 @@
     <t>Publishing Agency URI</t>
   </si>
   <si>
-    <t>Water use</t>
-  </si>
-  <si>
     <t>Legal &amp; Regulatory</t>
   </si>
   <si>
-    <t xml:space="preserve">Data </t>
-  </si>
-  <si>
     <t>Utilities (Water, Wastewater, Stormwater)</t>
   </si>
   <si>
@@ -3970,15 +3964,28 @@
       </rPr>
       <t>).</t>
     </r>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Water Use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4030,10 +4037,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4381,20 +4388,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" sqref="E108:E109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.28515625" style="3" customWidth="1"/>
-    <col min="4" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" style="3" customWidth="1"/>
+    <col min="4" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4420,1290 +4427,1635 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="F55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="F62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+      <c r="F63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="C69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="C70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="C73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="C75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="C82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="C84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" t="s">
+        <v>260</v>
+      </c>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="C87" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="C90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" t="s">
+        <v>260</v>
+      </c>
+      <c r="F90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+      <c r="F92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C94" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" t="s">
+        <v>260</v>
+      </c>
+      <c r="F94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+      <c r="F95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+      <c r="F96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" t="s">
+        <v>260</v>
+      </c>
+      <c r="F99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="C100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" t="s">
+        <v>260</v>
+      </c>
+      <c r="F100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" t="s">
+        <v>260</v>
+      </c>
+      <c r="F101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" t="s">
+        <v>260</v>
+      </c>
+      <c r="F102" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" t="s">
+        <v>260</v>
+      </c>
+      <c r="F103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C104" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>260</v>
+      </c>
+      <c r="F105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="F106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" t="s">
+        <v>260</v>
+      </c>
+      <c r="F108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C110" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D104" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="C111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="C112" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" t="s">
+        <v>260</v>
+      </c>
+      <c r="F112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="C113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+      <c r="F113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="C114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>260</v>
+      </c>
+      <c r="F116" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5727,23 +6079,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5766,80 +6118,80 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
